--- a/IMU说明/9.26-imu标定.xlsx
+++ b/IMU说明/9.26-imu标定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuGuanNan\Desktop\2025RC\24正赛\传感器标定\陀螺仪\IMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuGuanNan\Desktop\2025RC\github\NEW-IMU\IMU说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2AFD32-8320-4D17-B6FA-F5A529786B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAA1ED3-4A75-460D-AE61-9A6AEDF58C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:AS99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+      <selection activeCell="A79" sqref="A79:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
